--- a/aggregate_info/aggregate_info_8.xlsx
+++ b/aggregate_info/aggregate_info_8.xlsx
@@ -926,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,6 +1151,2054 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Финал первого раунда битвы мегафакультетов «ITMO.Megabattle»</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29 Ноября</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Школа вожатского мастерства СПО «Карамель» 2022</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28 Февраля - 28 Мая</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Гала-концерт межфакультетского фестиваля студенческого творчества &amp;quot;Я-первокурсник&amp;quot; 2017</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27 Октября</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4-й этап Межмуниципальных Соревнований по скандинавской ходьбе «Марафон Долголетия-2018</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27 Октября</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Новогодний выезд клубов «Будущее»?, «Карамель»?, «Славяне»?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26 Декабря - 27 Декабря</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Школа Вожатского Мастерства СПО &amp;quot;Карамель&amp;quot; 2021</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25 Февраля - 28 Мая</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Квест-игра &amp;quot;Fotonics Horror Story&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25 Сентября</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Главный организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Гала-концерт межфакультетского Фестиваля студенческого творчества &amp;quot;Весна в ИТМО&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25 Мая</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Открытие соревнований по скандинавской ходьбе «Марафон Долголетия-2019»</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25 Мая</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Летний выезд клуба СПО &amp;quot;Карамель&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25 Июня - 26 Июня</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Выезд</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Data-Driven Life Conference</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24 Ноября</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Финал 2 раунда &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24 Мая</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Праздник &amp;quot;Туристёнок-Спорт с пеленок!&amp;quot; 2018</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23 Сентября</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Заселение новых проживающих в 2021 на Б6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23 Августа - 31 Августа</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Стипендиальная программа Владимира Потанина 2022</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22 Ноября - 23 Февраля</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Закрытие городской акции &amp;quot;Весенняя неделя добра&amp;quot; в г. Санкт-Петербурге</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22 Апреля</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Квест-игра &amp;quot;Photonics Horror Story&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19 Сентября</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФ Фотоники в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19 Октября - 20 Октября</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Фестиваль-путеводитель по миру IT и Digital «Цифровые джунгли»</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18 Февраля</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>День донора Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18 Октября - 30 Октября</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>VII Международная конференция молодых ученых &amp;quot;АКТУАЛЬНЫЕ ПРОБЛЕМЫ СОВРЕМЕННОЙ ЭЛЕКТРОХИМИИ И ЭЛЕКТРОХИМИЧЕСКОГО МАТЕРИАЛОВЕДЕНИЯ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18 Ноября - 22 Декабря</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2-ая научно-практической конференция с международным участием &amp;quot;СОВЕРШЕНСТВОВАНИЕ СИСТЕМЫ ОБРАЩЕНИЯ С ОТХОДАМИ ПРОИЗВОДСТВА И ПОТРЕБЛЕНИЯ&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18 Марта - 19 Марта</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ITMO FAMILY DAY</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18 Июня</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Весенняя неделя добра ИТМО</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18 Апреля - 22 Апреля</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Презентация клубов «Будущее», «Карамель», «Славяне»</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17 Февраля - 12 Марта</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Демонстрация</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Деловая игра в рамках осеннего блока StudentsUP</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17 Октября</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Деловая игра</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATE Jubilee Conference: 25 Years of Navigating Through Challenges</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17 Апреля - 19 Апреля</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SCAMT Workshop Week</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16 Июля - 23 Июля</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>межвузовский</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Презентация клубов «Будущее», «Карамель», «Славяне»</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15 Февраля - 25 Февраля</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Презентация</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>XXIV Международная научно-практическая конференция студентов и молодых ученых «Химия и химическая технология в XXI веке»</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15 Мая - 19 Мая</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SCAMT Poster Conference 2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14 Декабря</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> X КОНГРЕСС МОЛОДЫХ УЧЕНЫХ (ОНЛАЙН ФОРМАТ) 14.04.2021 - 17.04.2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14 Апреля - 17 Апреля</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Кубок Университета ИТМО по волейболу  (Kronbars Games)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12 Февраля - 20 Марта</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SCAMT Workshop Week</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12 Марта - 19 Марта</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>межвузовский</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>XXIV Международная конференция студентов, аспирантов и молодых ученых &amp;quot;Ломоносов&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12 Апреля - 22 Апреля</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Посвящение первокурсников в общежитии №4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11 Октября</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Посвящение</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Выезд Мегафакультета Фотоника в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10 Октября - 11 Октября</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Международная научная конференция студентов, аспирантов и молодых учёных «Ломоносов-2023»</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10 Апреля - 21 Апреля</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2-й этап Межмуниципальных Соревнований по скандинавской ходьбе «Марафон Долголетия - 2018»</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>09 Сентября</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Школа вожатского мастерства СПО «Карамель» 2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>09 Марта - 26 Мая</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Стипендиальная программа Владимира Потанина 2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07 Февраля</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Открытая Лига Университета ИТМО по волейболу</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>07 Ноября - 20 Декабря</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Всероссийский форум студенческих спортивных клубов</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>06 Ноября - 11 Ноября</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Форум</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Конкурс на Повышенную государственную академическую стипендию Весенний семестр 2019</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>05 Февраля - 25 Февраля</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4-й этап Межмуниципальных Соревнований по скандинавской ходьбе &amp;quot;Марафон Долголетия-2019&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>05 Октября</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>региональный</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SCAMT scholarship program 2021</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>04 Октября - 06 Января</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XI Конгресс молодых ученых</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>04 Апреля - 08 Апреля</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Школа вожатского мастерства  «Карамель»</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>03 Февраля - 18 Февраля</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Член оргкомитета</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Школа вожатского мастерства СПО &amp;quot;Карамель&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>03 Марта - 22 Мая</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Онлайн-курс</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>XII конгресс молодых ученых ИТМО</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>03 Апреля - 06 Апреля</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Весенний выезд актива мегафакультета фотоники в УСОЦ &amp;quot;Ягодное&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>03 Апреля - 04 Апреля</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INTRODUCTION DAYS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>02 Сентября - 03 Сентября</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Весенний выезд студенческих отрядов</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>02 Апреля - 03 Апреля</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Слет</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Зимняя научная школа SCAMT Workshop Week</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>01 Февраля - 06 Февраля</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Воркшоп</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Деятельность студенческого совета общежития №4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>01 Сентября - 06 Июля</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Путь в науку — 2021</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>01 Марта - 30 Июня</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>прочее</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Весенний сезон ITMO.STEP 2022</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>01 Апреля - 03 Мая</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Массовое онлайн мероприятие</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
